--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\F\DIGIOTAI\Keypulse_Kprocess\Keypulse_Productivity\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCBBC9-D8C8-49A4-8D75-C75D04E28D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kpLostCause" sheetId="1" r:id="rId1"/>
@@ -32,7 +38,7 @@
     <sheet name="kpWaste" sheetId="23" r:id="rId23"/>
     <sheet name="kpWater" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,9 +91,6 @@
   </si>
   <si>
     <t>October</t>
-  </si>
-  <si>
-    <t>Novemeber</t>
   </si>
   <si>
     <t>December</t>
@@ -143,15 +146,18 @@
   <si>
     <t>waste</t>
   </si>
+  <si>
+    <t>November</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +223,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -263,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +309,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +361,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,14 +554,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -551,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -565,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -585,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -605,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -625,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -645,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -665,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -685,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -705,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -725,12 +777,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -745,12 +797,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -771,14 +823,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -806,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -820,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -834,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -848,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -862,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -876,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -890,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -904,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -915,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -926,23 +980,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -954,14 +1008,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -969,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1003,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1031,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1045,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1059,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1073,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -1087,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -1098,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -1109,23 +1165,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1137,14 +1193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1152,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1172,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1186,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1200,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1214,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1228,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1242,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1256,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -1270,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -1281,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -1292,23 +1350,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1320,14 +1378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1335,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1355,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1369,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1383,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1397,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1411,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1425,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1439,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -1453,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -1464,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -1475,23 +1535,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1503,14 +1563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1518,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1538,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1552,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1566,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1580,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1594,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1608,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1622,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -1636,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -1647,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -1658,23 +1720,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1686,14 +1748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1701,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1721,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1735,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1749,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1763,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1777,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1791,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1805,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -1819,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -1830,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -1841,23 +1905,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1869,14 +1933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1884,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1904,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -1918,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -1932,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -1946,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -1960,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -1974,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -1988,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2002,7 +2068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -2013,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -2024,23 +2090,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2052,14 +2118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2067,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -2087,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -2101,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -2115,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -2129,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -2143,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -2157,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -2171,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2185,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -2196,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -2207,23 +2275,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2235,14 +2303,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2250,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -2270,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -2284,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -2298,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -2312,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -2326,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -2340,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -2354,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2368,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -2379,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -2390,23 +2460,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2418,14 +2488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2433,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -2453,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -2467,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -2481,7 +2553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -2495,7 +2567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -2509,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -2523,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -2537,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2551,7 +2623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -2565,7 +2637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -2579,12 +2651,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2593,12 +2665,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2613,14 +2685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2628,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -2660,7 +2734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -2680,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -2700,7 +2774,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -2720,7 +2794,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -2740,7 +2814,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -2760,7 +2834,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -2780,7 +2854,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2800,7 +2874,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -2820,7 +2894,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -2840,12 +2914,12 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>164</v>
@@ -2860,12 +2934,12 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>158</v>
@@ -2886,14 +2960,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2901,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -2915,7 +2991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -2926,7 +3002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -2937,7 +3013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -2948,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -2959,7 +3035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -2970,7 +3046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -2981,7 +3057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -2992,7 +3068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -3003,7 +3079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -3014,23 +3090,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -3042,14 +3118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3057,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -3089,7 +3167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -3109,7 +3187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -3129,7 +3207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -3149,7 +3227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -3169,7 +3247,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -3189,7 +3267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -3209,7 +3287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -3229,7 +3307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -3249,7 +3327,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -3269,12 +3347,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1178</v>
@@ -3289,12 +3367,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1169</v>
@@ -3315,14 +3393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3330,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -3344,7 +3424,7 @@
         <v>10444</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -3355,7 +3435,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -3366,7 +3446,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -3377,7 +3457,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -3388,7 +3468,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -3399,7 +3479,7 @@
         <v>9745</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -3410,7 +3490,7 @@
         <v>11243</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -3421,7 +3501,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -3432,7 +3512,7 @@
         <v>9441</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -3443,23 +3523,23 @@
         <v>8798</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>8818</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>8817</v>
@@ -3471,14 +3551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3486,22 +3568,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -3524,7 +3606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -3547,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -3570,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -3593,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -3616,7 +3698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -3639,7 +3721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -3662,7 +3744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -3685,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -3708,7 +3790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -3731,12 +3813,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>203</v>
@@ -3754,12 +3836,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>203</v>
@@ -3783,14 +3865,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3798,19 +3882,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -3830,7 +3914,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -3850,7 +3934,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -3870,7 +3954,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -3890,7 +3974,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -3910,7 +3994,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -3930,7 +4014,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -3950,7 +4034,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -3970,7 +4054,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -3990,7 +4074,7 @@
         <v>17998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -4010,12 +4094,12 @@
         <v>19253</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>27037</v>
@@ -4030,12 +4114,12 @@
         <v>19721</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>27175</v>
@@ -4056,14 +4140,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4071,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -4085,7 +4171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -4096,7 +4182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -4107,7 +4193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -4118,7 +4204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -4129,7 +4215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -4140,7 +4226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -4151,7 +4237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -4162,7 +4248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -4173,7 +4259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -4184,23 +4270,23 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>72</v>
@@ -4212,14 +4298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4227,19 +4315,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -4259,7 +4347,7 @@
         <v>33333</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -4279,7 +4367,7 @@
         <v>37843</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -4299,7 +4387,7 @@
         <v>31288</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -4319,7 +4407,7 @@
         <v>34566</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -4339,7 +4427,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -4359,7 +4447,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -4379,7 +4467,7 @@
         <v>39941</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -4399,7 +4487,7 @@
         <v>32842</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -4419,7 +4507,7 @@
         <v>34057</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -4439,12 +4527,12 @@
         <v>35225</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>28010</v>
@@ -4459,12 +4547,12 @@
         <v>35372</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>28010</v>
@@ -4485,14 +4573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4500,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -4514,7 +4604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -4525,7 +4615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -4536,7 +4626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -4547,7 +4637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -4555,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -4566,7 +4656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -4577,7 +4667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -4588,7 +4678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -4599,7 +4689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -4610,23 +4700,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -4638,14 +4728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4653,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -4667,7 +4759,7 @@
         <v>33314</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -4678,7 +4770,7 @@
         <v>32387</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -4689,7 +4781,7 @@
         <v>39446</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -4700,7 +4792,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -4711,7 +4803,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -4722,7 +4814,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -4733,7 +4825,7 @@
         <v>33692</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -4744,7 +4836,7 @@
         <v>31670</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -4755,7 +4847,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -4766,23 +4858,23 @@
         <v>35638</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>35785</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>35734</v>
@@ -4794,14 +4886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4809,19 +4903,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -4841,7 +4935,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -4861,7 +4955,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -4881,7 +4975,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -4901,7 +4995,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -4921,7 +5015,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -4941,7 +5035,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -4961,7 +5055,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -4981,7 +5075,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -5001,7 +5095,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -5021,12 +5115,12 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>4177</v>
@@ -5041,12 +5135,12 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>4186</v>
@@ -5067,14 +5161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5082,19 +5178,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -5114,7 +5210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -5134,7 +5230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -5154,7 +5250,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -5174,7 +5270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -5194,7 +5290,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -5214,7 +5310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -5234,7 +5330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -5254,7 +5350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -5274,7 +5370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -5294,12 +5390,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>91</v>
@@ -5314,12 +5410,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>91</v>
@@ -5340,14 +5436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5355,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -5375,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -5389,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44986</v>
       </c>
@@ -5403,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45017</v>
       </c>
@@ -5417,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45047</v>
       </c>
@@ -5431,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45078</v>
       </c>
@@ -5442,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
@@ -5456,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45139</v>
       </c>
@@ -5470,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45170</v>
       </c>
@@ -5481,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45200</v>
       </c>
@@ -5492,23 +5590,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
